--- a/Tests/Project.xlsx
+++ b/Tests/Project.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="110">
   <si>
     <t>Test Case</t>
   </si>
@@ -353,7 +353,19 @@
     <t>Verify delete address</t>
   </si>
   <si>
-    <t>No addresses are available. Add a new address</t>
+    <t>Enter new address title in field</t>
+  </si>
+  <si>
+    <t>New address title is visible in field</t>
+  </si>
+  <si>
+    <t>My second address</t>
+  </si>
+  <si>
+    <t>MY SECOND ADDRESS</t>
+  </si>
+  <si>
+    <t>Leva 45</t>
   </si>
 </sst>
 </file>
@@ -511,7 +523,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -567,6 +579,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1560,7 +1575,7 @@
   <dimension ref="B2:H23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1812,12 +1827,12 @@
       <c r="G20" s="12"/>
       <c r="H20" s="13"/>
     </row>
-    <row r="21" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="27" t="s">
-        <v>105</v>
+      <c r="C21" s="31" t="s">
+        <v>108</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
@@ -1863,7 +1878,7 @@
   <dimension ref="B2:H23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1964,9 +1979,7 @@
       <c r="E8" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="F8" s="22" t="s">
-        <v>16</v>
-      </c>
+      <c r="F8" s="22"/>
       <c r="G8" s="24"/>
       <c r="H8" s="13"/>
     </row>
@@ -1981,9 +1994,7 @@
       <c r="E9" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="F9" s="22" t="s">
-        <v>16</v>
-      </c>
+      <c r="F9" s="22"/>
       <c r="G9" s="24"/>
       <c r="H9" s="13"/>
     </row>
@@ -2000,9 +2011,7 @@
       <c r="E10" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="F10" s="22" t="s">
-        <v>16</v>
-      </c>
+      <c r="F10" s="22"/>
       <c r="G10" s="24"/>
       <c r="H10" s="13"/>
     </row>
@@ -2019,9 +2028,7 @@
       <c r="E11" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="F11" s="22" t="s">
-        <v>16</v>
-      </c>
+      <c r="F11" s="22"/>
       <c r="G11" s="24"/>
       <c r="H11" s="13"/>
     </row>
@@ -2038,9 +2045,7 @@
       <c r="E12" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="F12" s="22" t="s">
-        <v>16</v>
-      </c>
+      <c r="F12" s="22"/>
       <c r="G12" s="24"/>
       <c r="H12" s="13"/>
     </row>
@@ -2100,11 +2105,13 @@
         <v>9</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" s="22"/>
+        <v>105</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>107</v>
+      </c>
       <c r="E16" s="22" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="F16" s="22"/>
       <c r="G16" s="24"/>
@@ -2114,9 +2121,13 @@
       <c r="B17" s="23">
         <v>10</v>
       </c>
-      <c r="C17" s="22"/>
+      <c r="C17" s="22" t="s">
+        <v>79</v>
+      </c>
       <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
+      <c r="E17" s="22" t="s">
+        <v>80</v>
+      </c>
       <c r="F17" s="22"/>
       <c r="G17" s="24"/>
       <c r="H17" s="13"/>
@@ -2155,8 +2166,8 @@
       <c r="B21" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="27" t="s">
-        <v>84</v>
+      <c r="C21" s="31" t="s">
+        <v>108</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
@@ -2185,7 +2196,7 @@
       <c r="H23" s="5"/>
     </row>
   </sheetData>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:F17">
       <formula1>"Not Run ,Pass,Fail,Block"</formula1>
     </dataValidation>
@@ -2202,7 +2213,7 @@
   <dimension ref="B2:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2383,9 +2394,13 @@
       <c r="B13" s="23">
         <v>6</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
+      <c r="C13" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="25"/>
+      <c r="E13" s="22" t="s">
+        <v>72</v>
+      </c>
       <c r="F13" s="22"/>
       <c r="G13" s="24"/>
       <c r="H13" s="13"/>
@@ -2394,9 +2409,13 @@
       <c r="B14" s="23">
         <v>7</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
+      <c r="C14" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="25"/>
+      <c r="E14" s="22" t="s">
+        <v>72</v>
+      </c>
       <c r="F14" s="22"/>
       <c r="G14" s="24"/>
       <c r="H14" s="13"/>
@@ -2405,9 +2424,13 @@
       <c r="B15" s="23">
         <v>8</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
+      <c r="C15" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="28"/>
+      <c r="E15" s="22" t="s">
+        <v>75</v>
+      </c>
       <c r="F15" s="22"/>
       <c r="G15" s="24"/>
       <c r="H15" s="13"/>
@@ -2416,9 +2439,15 @@
       <c r="B16" s="23">
         <v>9</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
+      <c r="C16" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>78</v>
+      </c>
       <c r="F16" s="22"/>
       <c r="G16" s="24"/>
       <c r="H16" s="13"/>
@@ -2427,9 +2456,13 @@
       <c r="B17" s="23">
         <v>10</v>
       </c>
-      <c r="C17" s="22"/>
+      <c r="C17" s="22" t="s">
+        <v>79</v>
+      </c>
       <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
+      <c r="E17" s="22" t="s">
+        <v>80</v>
+      </c>
       <c r="F17" s="22"/>
       <c r="G17" s="24"/>
       <c r="H17" s="13"/>
@@ -2498,7 +2531,7 @@
       <c r="H23" s="5"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
       <formula1>"TEST CASE,BUG REPORT"</formula1>
     </dataValidation>

--- a/Tests/Project.xlsx
+++ b/Tests/Project.xlsx
@@ -9,19 +9,27 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15075" windowHeight="11820" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15075" windowHeight="11820" tabRatio="691"/>
   </bookViews>
   <sheets>
     <sheet name="Test Plan" sheetId="1" r:id="rId1"/>
     <sheet name="BR1" sheetId="9" r:id="rId2"/>
-    <sheet name="TC8" sheetId="12" r:id="rId3"/>
-    <sheet name="TC7" sheetId="11" r:id="rId4"/>
-    <sheet name="TC6" sheetId="10" r:id="rId5"/>
-    <sheet name="TC5" sheetId="8" r:id="rId6"/>
-    <sheet name="TC4" sheetId="7" r:id="rId7"/>
-    <sheet name="TC3" sheetId="6" r:id="rId8"/>
-    <sheet name="TC2" sheetId="5" r:id="rId9"/>
-    <sheet name="TC1" sheetId="2" r:id="rId10"/>
+    <sheet name="TC16" sheetId="20" r:id="rId3"/>
+    <sheet name="TC15" sheetId="19" r:id="rId4"/>
+    <sheet name="TC14" sheetId="18" r:id="rId5"/>
+    <sheet name="TC13" sheetId="17" r:id="rId6"/>
+    <sheet name="TC12" sheetId="16" r:id="rId7"/>
+    <sheet name="TC11" sheetId="15" r:id="rId8"/>
+    <sheet name="TC10" sheetId="14" r:id="rId9"/>
+    <sheet name="TC9" sheetId="13" r:id="rId10"/>
+    <sheet name="TC8" sheetId="12" r:id="rId11"/>
+    <sheet name="TC7" sheetId="11" r:id="rId12"/>
+    <sheet name="TC6" sheetId="10" r:id="rId13"/>
+    <sheet name="TC5" sheetId="8" r:id="rId14"/>
+    <sheet name="TC4" sheetId="7" r:id="rId15"/>
+    <sheet name="TC3" sheetId="6" r:id="rId16"/>
+    <sheet name="TC2" sheetId="5" r:id="rId17"/>
+    <sheet name="TC1" sheetId="2" r:id="rId18"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -33,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="177">
   <si>
     <t>Test Case</t>
   </si>
@@ -137,15 +145,9 @@
     <t>In "Already registered" part enter email in "Email address" field</t>
   </si>
   <si>
-    <t>In "Already registered" part enter email in "Password" field</t>
-  </si>
-  <si>
     <t>In "Already registered" part ckick on green "Sign in" button</t>
   </si>
   <si>
-    <t>Go to navigate page</t>
-  </si>
-  <si>
     <t>Open page for Sign in</t>
   </si>
   <si>
@@ -155,21 +157,12 @@
     <t>Password is covered in dots</t>
   </si>
   <si>
-    <t>Go to "My Account" page</t>
-  </si>
-  <si>
     <t>Verify invalid email and valid password</t>
   </si>
   <si>
     <t>In "Already registered" part enter invalid email in "Email address" field</t>
   </si>
   <si>
-    <t>In "Already registered" part enter valid email in "Password" field</t>
-  </si>
-  <si>
-    <t>Show up error message</t>
-  </si>
-  <si>
     <t>Verify valid email and invalid password</t>
   </si>
   <si>
@@ -179,25 +172,16 @@
     <t>In "Already registered" part enter valid email in "Email address" field</t>
   </si>
   <si>
-    <t>In "Already registered" part enter invalid email in "Password" field</t>
-  </si>
-  <si>
     <t>In "Already registered" part leave "Email address" field empty</t>
   </si>
   <si>
     <t>In "Already registered" part leave "Password" field empty</t>
   </si>
   <si>
-    <t>Verify empty credentials</t>
-  </si>
-  <si>
     <t>MY ACCOUNT</t>
   </si>
   <si>
     <t xml:space="preserve">Click on "Sign out" </t>
-  </si>
-  <si>
-    <t>Go to "AUTHENTICATION" page</t>
   </si>
   <si>
     <t>123456</t>
@@ -248,15 +232,9 @@
     <t>Open Google Chrome browser and Sign in</t>
   </si>
   <si>
-    <t>Verify update address</t>
-  </si>
-  <si>
     <t>Click on "MY ADDRESSES" button</t>
   </si>
   <si>
-    <t>Go to "MY ADDRESSES" page</t>
-  </si>
-  <si>
     <t>Click on "Update" button</t>
   </si>
   <si>
@@ -278,15 +256,9 @@
     <t>Click "Save" button</t>
   </si>
   <si>
-    <t>Go to "MY ADDRESSES" page and see new address</t>
-  </si>
-  <si>
     <t>TC7</t>
   </si>
   <si>
-    <t>Verify add new address</t>
-  </si>
-  <si>
     <t>Click on "Add new address" button</t>
   </si>
   <si>
@@ -350,9 +322,6 @@
     <t>Click on "OK" button in pop-up dialog</t>
   </si>
   <si>
-    <t>Verify delete address</t>
-  </si>
-  <si>
     <t>Enter new address title in field</t>
   </si>
   <si>
@@ -366,6 +335,246 @@
   </si>
   <si>
     <t>Leva 45</t>
+  </si>
+  <si>
+    <t>Click on "MY WISHLIST" button</t>
+  </si>
+  <si>
+    <t>Enter Wishlist name in "Wishlist" field</t>
+  </si>
+  <si>
+    <t>Wishlist is visible in "Wishlist" field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on "Save" button </t>
+  </si>
+  <si>
+    <t>Wishlist with that name show up below</t>
+  </si>
+  <si>
+    <t>Moja lista zelja</t>
+  </si>
+  <si>
+    <t>TC9</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>Click od "x" in "Delete" field</t>
+  </si>
+  <si>
+    <t>TC10</t>
+  </si>
+  <si>
+    <t>Lista1</t>
+  </si>
+  <si>
+    <t>Lista2</t>
+  </si>
+  <si>
+    <t>Lista3</t>
+  </si>
+  <si>
+    <t>TC11</t>
+  </si>
+  <si>
+    <t>TC12</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>Click on "MY PERSONALL INFORMATION" button</t>
+  </si>
+  <si>
+    <t>Clear "Last name" field</t>
+  </si>
+  <si>
+    <t>"Last name" field is empty</t>
+  </si>
+  <si>
+    <t>Enter new last name in "Last name" field</t>
+  </si>
+  <si>
+    <t>New last name is visible in "Last name" field</t>
+  </si>
+  <si>
+    <t>Enter password in "Current Password" field</t>
+  </si>
+  <si>
+    <t>Your personal information has been successfully updated.</t>
+  </si>
+  <si>
+    <t>Click "Back to your account" button</t>
+  </si>
+  <si>
+    <t>Message "Your personal information has been successfully updated."</t>
+  </si>
+  <si>
+    <t>Cockalo</t>
+  </si>
+  <si>
+    <t>Enter old last name in "Last name" field</t>
+  </si>
+  <si>
+    <t>Vucetic</t>
+  </si>
+  <si>
+    <t>TC13</t>
+  </si>
+  <si>
+    <t>S5</t>
+  </si>
+  <si>
+    <t>Blouse</t>
+  </si>
+  <si>
+    <t>Click on "Home" button</t>
+  </si>
+  <si>
+    <t>Click on "Add to cart" of Blouse product</t>
+  </si>
+  <si>
+    <t>Click on "Proceed to checkout" button</t>
+  </si>
+  <si>
+    <t>TC14</t>
+  </si>
+  <si>
+    <t>Click on "Add to cart" button tree times of Blouse product</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>TC15</t>
+  </si>
+  <si>
+    <t>TC16</t>
+  </si>
+  <si>
+    <t>Click on "Continue shopping" button</t>
+  </si>
+  <si>
+    <t>Return to main page</t>
+  </si>
+  <si>
+    <t>Click on "Add to cart" of Printed Dress product</t>
+  </si>
+  <si>
+    <t>Click on "Add to cart" of Printed Summer Dress product</t>
+  </si>
+  <si>
+    <t>Printed Dress</t>
+  </si>
+  <si>
+    <t>Printed Summer Dress</t>
+  </si>
+  <si>
+    <t>Your shopping cart is empty.</t>
+  </si>
+  <si>
+    <t>Click on button for delete in shape of trash can</t>
+  </si>
+  <si>
+    <t>Cart is empty</t>
+  </si>
+  <si>
+    <t>In "Already registered" part enter password in "Password" field</t>
+  </si>
+  <si>
+    <t>Navigate page appears</t>
+  </si>
+  <si>
+    <t>Password is visible and covered with dots</t>
+  </si>
+  <si>
+    <t>My Account page appears</t>
+  </si>
+  <si>
+    <t>Error message appears</t>
+  </si>
+  <si>
+    <t>In "Already registered" part enter valid password in "Password" field</t>
+  </si>
+  <si>
+    <t>In "Already registered" part enter invalid password in "Password" field</t>
+  </si>
+  <si>
+    <t>Field is empty</t>
+  </si>
+  <si>
+    <t>Verify Sign in with empty credentials fields</t>
+  </si>
+  <si>
+    <t>Authentication page appears</t>
+  </si>
+  <si>
+    <t>Your Addresses page appears</t>
+  </si>
+  <si>
+    <t>My Addresses page appears</t>
+  </si>
+  <si>
+    <t>My Addresses page appears and new address is visible</t>
+  </si>
+  <si>
+    <t>My Addresses page appears and previous address is visible</t>
+  </si>
+  <si>
+    <t>Verify removing address</t>
+  </si>
+  <si>
+    <t>My Addresses page appears and My second address is gone</t>
+  </si>
+  <si>
+    <t>My wishlist page appears</t>
+  </si>
+  <si>
+    <t>Verify adding wishlist</t>
+  </si>
+  <si>
+    <t>Verify adding new address</t>
+  </si>
+  <si>
+    <t>Verify address update</t>
+  </si>
+  <si>
+    <t>Verify removing wishlist</t>
+  </si>
+  <si>
+    <t>Wishlist is delete</t>
+  </si>
+  <si>
+    <t>Verify adding multiple wishlist</t>
+  </si>
+  <si>
+    <t>My personall information page appears</t>
+  </si>
+  <si>
+    <t>Verify personal information editing</t>
+  </si>
+  <si>
+    <t>My account page appears</t>
+  </si>
+  <si>
+    <t>Verify adding one product to cart</t>
+  </si>
+  <si>
+    <t>Main page appears</t>
+  </si>
+  <si>
+    <t>Cart page appears</t>
+  </si>
+  <si>
+    <t>Verify adding multiple products to cart</t>
+  </si>
+  <si>
+    <t>Verify adding tree same products to cart</t>
+  </si>
+  <si>
+    <t>Verify removing one product from cart</t>
   </si>
 </sst>
 </file>
@@ -523,7 +732,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -581,6 +790,12 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -863,10 +1078,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F10"/>
+  <dimension ref="B2:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -880,7 +1095,7 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -951,7 +1166,7 @@
       </c>
       <c r="D6" t="str">
         <f>'TC4'!C3</f>
-        <v>Verify empty credentials</v>
+        <v>Verify Sign in with empty credentials fields</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -981,8 +1196,9 @@
       </c>
       <c r="D8" t="str">
         <f>'TC6'!C3</f>
-        <v>Verify update address</v>
-      </c>
+        <v>Verify address update</v>
+      </c>
+      <c r="E8" s="1"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" t="str">
@@ -995,8 +1211,9 @@
       </c>
       <c r="D9" t="str">
         <f>'TC7'!C3</f>
-        <v>Verify add new address</v>
-      </c>
+        <v>Verify adding new address</v>
+      </c>
+      <c r="E9" s="1"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" t="str">
@@ -1009,8 +1226,129 @@
       </c>
       <c r="D10" t="str">
         <f>'TC8'!C3</f>
-        <v>Verify delete address</v>
-      </c>
+        <v>Verify removing address</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="str">
+        <f>'TC9'!G3</f>
+        <v>S3</v>
+      </c>
+      <c r="C11" t="str">
+        <f>'TC9'!B3</f>
+        <v>TC9</v>
+      </c>
+      <c r="D11" t="str">
+        <f>'TC9'!C3</f>
+        <v>Verify adding wishlist</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="str">
+        <f>'TC10'!G3</f>
+        <v>S3</v>
+      </c>
+      <c r="C12" t="str">
+        <f>'TC10'!B3</f>
+        <v>TC10</v>
+      </c>
+      <c r="D12" t="str">
+        <f>'TC10'!C3</f>
+        <v>Verify removing wishlist</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="str">
+        <f>'TC11'!G3</f>
+        <v>S3</v>
+      </c>
+      <c r="C13" t="str">
+        <f>'TC11'!B3</f>
+        <v>TC11</v>
+      </c>
+      <c r="D13" t="str">
+        <f>'TC11'!C3</f>
+        <v>Verify adding multiple wishlist</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="str">
+        <f>'TC12'!G3</f>
+        <v>S4</v>
+      </c>
+      <c r="C14" t="str">
+        <f>'TC12'!B3</f>
+        <v>TC12</v>
+      </c>
+      <c r="D14" t="str">
+        <f>'TC12'!C3</f>
+        <v>Verify personal information editing</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="str">
+        <f>'TC13'!G3</f>
+        <v>S5</v>
+      </c>
+      <c r="C15" t="str">
+        <f>'TC13'!B3</f>
+        <v>TC13</v>
+      </c>
+      <c r="D15" t="str">
+        <f>'TC13'!C3</f>
+        <v>Verify adding one product to cart</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" t="str">
+        <f>'TC14'!G3</f>
+        <v>S5</v>
+      </c>
+      <c r="C16" t="str">
+        <f>'TC14'!B3</f>
+        <v>TC14</v>
+      </c>
+      <c r="D16" t="str">
+        <f>'TC14'!C3</f>
+        <v>Verify adding tree same products to cart</v>
+      </c>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" t="str">
+        <f>'TC15'!G3</f>
+        <v>S5</v>
+      </c>
+      <c r="C17" t="str">
+        <f>'TC15'!B3</f>
+        <v>TC15</v>
+      </c>
+      <c r="D17" t="str">
+        <f>'TC15'!C3</f>
+        <v>Verify adding multiple products to cart</v>
+      </c>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" t="str">
+        <f>'TC16'!G3</f>
+        <v>S5</v>
+      </c>
+      <c r="C18" t="str">
+        <f>'TC16'!B3</f>
+        <v>TC16</v>
+      </c>
+      <c r="D18" t="str">
+        <f>'TC16'!C3</f>
+        <v>Verify removing one product from cart</v>
+      </c>
+      <c r="E18" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1022,7 +1360,2577 @@
   <dimension ref="B2:H23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.7109375" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" customWidth="1"/>
+    <col min="5" max="5" width="35.7109375" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="9" width="2.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="10" t="str">
+        <f>IF(D2="BUG REPORT","Bug Name","Test Case Name")</f>
+        <v>Test Case Name</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="19"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="H3" s="21"/>
+    </row>
+    <row r="5" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="13"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="15"/>
+      <c r="C7" s="16" t="str">
+        <f>IF(D2="BUG REPORT","Steps To Reproduce","Test Steps Description")</f>
+        <v>Test Steps Description</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="23">
+        <v>1</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="24"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="23">
+        <v>2</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="24"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="23">
+        <v>3</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="28"/>
+      <c r="E10" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="24"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="23">
+        <v>4</v>
+      </c>
+      <c r="C11" s="22"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="23">
+        <v>5</v>
+      </c>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="23">
+        <v>6</v>
+      </c>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="23">
+        <v>7</v>
+      </c>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="23">
+        <v>8</v>
+      </c>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="16" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="23">
+        <v>9</v>
+      </c>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="13"/>
+    </row>
+    <row r="17" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="23">
+        <v>10</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="11"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="17" t="str">
+        <f>IF(D2="BUG REPORT","Actual Result:","")</f>
+        <v/>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="13"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="11"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="13"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="13"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="13"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="5"/>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+      <formula1>"TEST CASE,BUG REPORT"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:F17">
+      <formula1>"Not Run ,Pass,Fail,Block"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H23"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.7109375" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" customWidth="1"/>
+    <col min="5" max="5" width="35.7109375" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="9" width="2.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="10" t="str">
+        <f>IF(D2="BUG REPORT","Bug Name","Test Case Name")</f>
+        <v>Test Case Name</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="19"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="21"/>
+    </row>
+    <row r="5" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="13"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="15"/>
+      <c r="C7" s="16" t="str">
+        <f>IF(D2="BUG REPORT","Steps To Reproduce","Test Steps Description")</f>
+        <v>Test Steps Description</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="23">
+        <v>1</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="24"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="23">
+        <v>2</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="24"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="23">
+        <v>3</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="28"/>
+      <c r="E10" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="24"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="23">
+        <v>4</v>
+      </c>
+      <c r="C11" s="22"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="23">
+        <v>5</v>
+      </c>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="23">
+        <v>6</v>
+      </c>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="23">
+        <v>7</v>
+      </c>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="23">
+        <v>8</v>
+      </c>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="16" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="23">
+        <v>9</v>
+      </c>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="13"/>
+    </row>
+    <row r="17" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="23">
+        <v>10</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="11"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="17" t="str">
+        <f>IF(D2="BUG REPORT","Actual Result:","")</f>
+        <v/>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="13"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="11"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="13"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="13"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="13"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="5"/>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:F17">
+      <formula1>"Not Run ,Pass,Fail,Block"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+      <formula1>"TEST CASE,BUG REPORT"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H23"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.7109375" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" customWidth="1"/>
+    <col min="5" max="5" width="35.7109375" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="9" width="2.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="10" t="str">
+        <f>IF(D2="BUG REPORT","Bug Name","Test Case Name")</f>
+        <v>Test Case Name</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="19"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="21"/>
+    </row>
+    <row r="5" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="13"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="15"/>
+      <c r="C7" s="16" t="str">
+        <f>IF(D2="BUG REPORT","Steps To Reproduce","Test Steps Description")</f>
+        <v>Test Steps Description</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="23">
+        <v>1</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="24"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="23">
+        <v>2</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="24"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="23">
+        <v>3</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="24"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="23">
+        <v>4</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="24"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="23">
+        <v>5</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="24"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="23">
+        <v>6</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="24"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="23">
+        <v>7</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="24"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="23">
+        <v>8</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="24"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="16" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="23">
+        <v>9</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="24"/>
+      <c r="H16" s="13"/>
+    </row>
+    <row r="17" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="23">
+        <v>10</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="24"/>
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="11"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="17" t="str">
+        <f>IF(D2="BUG REPORT","Actual Result:","")</f>
+        <v/>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="13"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="11"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="13"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="13"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="13"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="5"/>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:F17">
+      <formula1>"Not Run ,Pass,Fail,Block"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+      <formula1>"TEST CASE,BUG REPORT"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H23"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.7109375" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" customWidth="1"/>
+    <col min="5" max="5" width="35.7109375" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="9" width="2.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="10" t="str">
+        <f>IF(D2="BUG REPORT","Bug Name","Test Case Name")</f>
+        <v>Test Case Name</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="19"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="21"/>
+    </row>
+    <row r="5" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="13"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="15"/>
+      <c r="C7" s="16" t="str">
+        <f>IF(D2="BUG REPORT","Steps To Reproduce","Test Steps Description")</f>
+        <v>Test Steps Description</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="23">
+        <v>1</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="24"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="23">
+        <v>2</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="24"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="23">
+        <v>3</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="28"/>
+      <c r="E10" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="24"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="23">
+        <v>4</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="24"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="23">
+        <v>5</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="24"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="23">
+        <v>6</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="25"/>
+      <c r="E13" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="F13" s="22"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="23">
+        <v>7</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="25"/>
+      <c r="E14" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="F14" s="22"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="23">
+        <v>8</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="28"/>
+      <c r="E15" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="22"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="16" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="23">
+        <v>9</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="22"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="13"/>
+    </row>
+    <row r="17" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="23">
+        <v>10</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="F17" s="22"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="11"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="17" t="str">
+        <f>IF(D2="BUG REPORT","Actual Result:","")</f>
+        <v/>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="13"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="11"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="13"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="13"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="13"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="5"/>
+    </row>
+  </sheetData>
+  <dataValidations disablePrompts="1" count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+      <formula1>"TEST CASE,BUG REPORT"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:F17">
+      <formula1>"Not Run ,Pass,Fail,Block"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H23"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" customWidth="1"/>
+    <col min="5" max="5" width="35.7109375" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="9" width="2.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="10" t="str">
+        <f>IF(D2="BUG REPORT","Bug Name","Test Case Name")</f>
+        <v>Test Case Name</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="19"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="21"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="13"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="15"/>
+      <c r="C7" s="16" t="str">
+        <f>IF(D2="BUG REPORT","Steps To Reproduce","Test Steps Description")</f>
+        <v>Test Steps Description</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="23">
+        <v>1</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="24"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="23">
+        <v>2</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="24"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="23">
+        <v>3</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="24"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="23">
+        <v>4</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="24"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="23">
+        <v>5</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="24"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="23">
+        <v>6</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="24"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="23">
+        <v>7</v>
+      </c>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="23">
+        <v>8</v>
+      </c>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="16" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="23">
+        <v>9</v>
+      </c>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="13"/>
+    </row>
+    <row r="17" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="23">
+        <v>10</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="11"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="17" t="str">
+        <f>IF(D2="BUG REPORT","Actual Result:","")</f>
+        <v/>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="13"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="11"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="13"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="13"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="13"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="5"/>
+    </row>
+  </sheetData>
+  <dataValidations disablePrompts="1" count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:F17">
+      <formula1>"Not Run ,Pass,Fail,Block"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+      <formula1>"TEST CASE,BUG REPORT"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="D8" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H23"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" customWidth="1"/>
+    <col min="5" max="5" width="35.7109375" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="9" width="2.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="10" t="str">
+        <f>IF(D2="BUG REPORT","Bug Name","Test Case Name")</f>
+        <v>Test Case Name</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="19"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="21"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="13"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="15"/>
+      <c r="C7" s="16" t="str">
+        <f>IF(D2="BUG REPORT","Steps To Reproduce","Test Steps Description")</f>
+        <v>Test Steps Description</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="23">
+        <v>1</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="24"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="23">
+        <v>2</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="24"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="23">
+        <v>3</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="25"/>
+      <c r="E10" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="24"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="23">
+        <v>4</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="24"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="23">
+        <v>5</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="24"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="23">
+        <v>6</v>
+      </c>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="23">
+        <v>7</v>
+      </c>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="23">
+        <v>8</v>
+      </c>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="16" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="23">
+        <v>9</v>
+      </c>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="13"/>
+    </row>
+    <row r="17" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="23">
+        <v>10</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="11"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="17" t="str">
+        <f>IF(D2="BUG REPORT","Actual Result:","")</f>
+        <v/>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="13"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="11"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="13"/>
+    </row>
+    <row r="21" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B21" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="13"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="13"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="5"/>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+      <formula1>"TEST CASE,BUG REPORT"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:F17">
+      <formula1>"Not Run ,Pass,Fail,Block"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="D8" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H23"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" customWidth="1"/>
+    <col min="4" max="5" width="30.7109375" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="9" width="2.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="10" t="str">
+        <f>IF(D2="BUG REPORT","Bug Name","Test Case Name")</f>
+        <v>Test Case Name</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="19"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="21"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="13"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="15"/>
+      <c r="C7" s="16" t="str">
+        <f>IF(D2="BUG REPORT","Steps To Reproduce","Test Steps Description")</f>
+        <v>Test Steps Description</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="23">
+        <v>1</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="24"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="23">
+        <v>2</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="24"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="23">
+        <v>3</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="24"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="23">
+        <v>4</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="24"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="23">
+        <v>5</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="24"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="23">
+        <v>6</v>
+      </c>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="23">
+        <v>7</v>
+      </c>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="23">
+        <v>8</v>
+      </c>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="16" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="23">
+        <v>9</v>
+      </c>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="13"/>
+    </row>
+    <row r="17" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="23">
+        <v>10</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="11"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="17" t="str">
+        <f>IF(D2="BUG REPORT","Actual Result:","")</f>
+        <v/>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="13"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="11"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="13"/>
+    </row>
+    <row r="21" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B21" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="13"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="13"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="5"/>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:F17">
+      <formula1>"Not Run ,Pass,Fail,Block"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+      <formula1>"TEST CASE,BUG REPORT"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="D8" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H23"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" customWidth="1"/>
+    <col min="4" max="5" width="30.7109375" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="9" width="2.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="10" t="str">
+        <f>IF(D2="BUG REPORT","Bug Name","Test Case Name")</f>
+        <v>Test Case Name</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="19"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="21"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="13"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="15"/>
+      <c r="C7" s="16" t="str">
+        <f>IF(D2="BUG REPORT","Steps To Reproduce","Test Steps Description")</f>
+        <v>Test Steps Description</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="23">
+        <v>1</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="24"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="23">
+        <v>2</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="24"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="23">
+        <v>3</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="24"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="23">
+        <v>4</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="24"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="23">
+        <v>5</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="24"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="23">
+        <v>6</v>
+      </c>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="23">
+        <v>7</v>
+      </c>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="23">
+        <v>8</v>
+      </c>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="16" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="23">
+        <v>9</v>
+      </c>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="13"/>
+    </row>
+    <row r="17" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="23">
+        <v>10</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="11"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="17" t="str">
+        <f>IF(D2="BUG REPORT","Actual Result:","")</f>
+        <v/>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="13"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="11"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="13"/>
+    </row>
+    <row r="21" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B21" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="13"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="13"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="5"/>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+      <formula1>"TEST CASE,BUG REPORT"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:F17">
+      <formula1>"Not Run ,Pass,Fail,Block"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="D8" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H23"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1057,15 +3965,15 @@
         <v>3</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D3" s="20"/>
       <c r="E3" s="20"/>
       <c r="F3" s="20" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="H3" s="21"/>
     </row>
@@ -1122,7 +4030,7 @@
         <v>30</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>36</v>
+        <v>146</v>
       </c>
       <c r="F8" s="22" t="s">
         <v>16</v>
@@ -1139,7 +4047,7 @@
       </c>
       <c r="D9" s="25"/>
       <c r="E9" s="22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F9" s="22" t="s">
         <v>16</v>
@@ -1155,10 +4063,10 @@
         <v>33</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F10" s="22" t="s">
         <v>16</v>
@@ -1171,13 +4079,13 @@
         <v>4</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>34</v>
+        <v>145</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>39</v>
+        <v>147</v>
       </c>
       <c r="F11" s="22" t="s">
         <v>16</v>
@@ -1190,11 +4098,11 @@
         <v>5</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="22" t="s">
-        <v>40</v>
+        <v>148</v>
       </c>
       <c r="F12" s="22" t="s">
         <v>16</v>
@@ -1292,7 +4200,7 @@
         <v>29</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
@@ -1321,7 +4229,7 @@
       <c r="H23" s="5"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:F17">
       <formula1>"Not Run ,Pass,Fail,Block"</formula1>
     </dataValidation>
@@ -1575,7 +4483,7 @@
   <dimension ref="B2:H23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1608,18 +4516,18 @@
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>104</v>
+        <v>176</v>
       </c>
       <c r="D3" s="20"/>
       <c r="E3" s="20"/>
       <c r="F3" s="20" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>64</v>
+        <v>126</v>
       </c>
       <c r="H3" s="21"/>
     </row>
@@ -1628,7 +4536,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -1670,11 +4578,11 @@
         <v>1</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>71</v>
+        <v>128</v>
       </c>
       <c r="D8" s="25"/>
       <c r="E8" s="22" t="s">
-        <v>72</v>
+        <v>172</v>
       </c>
       <c r="F8" s="22" t="s">
         <v>16</v>
@@ -1687,11 +4595,11 @@
         <v>2</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="D9" s="25"/>
+        <v>132</v>
+      </c>
+      <c r="D9" s="22"/>
       <c r="E9" s="22" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F9" s="22" t="s">
         <v>16</v>
@@ -1704,11 +4612,11 @@
         <v>3</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="D10" s="28"/>
       <c r="E10" s="22" t="s">
-        <v>72</v>
+        <v>173</v>
       </c>
       <c r="F10" s="22" t="s">
         <v>16</v>
@@ -1720,9 +4628,13 @@
       <c r="B11" s="23">
         <v>4</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="22"/>
+      <c r="C11" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="D11" s="33"/>
+      <c r="E11" s="22" t="s">
+        <v>144</v>
+      </c>
       <c r="F11" s="22" t="s">
         <v>16</v>
       </c>
@@ -1736,9 +4648,7 @@
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
       <c r="E12" s="22"/>
-      <c r="F12" s="22" t="s">
-        <v>16</v>
-      </c>
+      <c r="F12" s="22"/>
       <c r="G12" s="24"/>
       <c r="H12" s="13"/>
     </row>
@@ -1758,7 +4668,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
+      <c r="D14" s="25"/>
       <c r="E14" s="22"/>
       <c r="F14" s="22"/>
       <c r="G14" s="24"/>
@@ -1780,7 +4690,7 @@
         <v>9</v>
       </c>
       <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
+      <c r="D16" s="28"/>
       <c r="E16" s="22"/>
       <c r="F16" s="22"/>
       <c r="G16" s="24"/>
@@ -1790,18 +4700,18 @@
       <c r="B17" s="23">
         <v>10</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="33"/>
       <c r="E17" s="22"/>
       <c r="F17" s="22"/>
       <c r="G17" s="24"/>
       <c r="H17" s="13"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="11"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="13"/>
@@ -1831,11 +4741,11 @@
       <c r="B21" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
+      <c r="C21" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
       <c r="H21" s="13"/>
@@ -1862,11 +4772,11 @@
     </row>
   </sheetData>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+      <formula1>"TEST CASE,BUG REPORT"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:F17">
       <formula1>"Not Run ,Pass,Fail,Block"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
-      <formula1>"TEST CASE,BUG REPORT"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1878,7 +4788,7 @@
   <dimension ref="B2:H23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1911,18 +4821,18 @@
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>82</v>
+        <v>174</v>
       </c>
       <c r="D3" s="20"/>
       <c r="E3" s="20"/>
       <c r="F3" s="20" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>64</v>
+        <v>126</v>
       </c>
       <c r="H3" s="21"/>
     </row>
@@ -1931,7 +4841,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -1973,13 +4883,15 @@
         <v>1</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>71</v>
+        <v>128</v>
       </c>
       <c r="D8" s="25"/>
       <c r="E8" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="F8" s="22"/>
+        <v>172</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>16</v>
+      </c>
       <c r="G8" s="24"/>
       <c r="H8" s="13"/>
     </row>
@@ -1988,13 +4900,15 @@
         <v>2</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" s="25"/>
+        <v>129</v>
+      </c>
+      <c r="D9" s="22"/>
       <c r="E9" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="F9" s="22"/>
+        <v>90</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>16</v>
+      </c>
       <c r="G9" s="24"/>
       <c r="H9" s="13"/>
     </row>
@@ -2002,16 +4916,15 @@
       <c r="B10" s="23">
         <v>3</v>
       </c>
-      <c r="C10" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>84</v>
+      <c r="C10" s="32" t="s">
+        <v>136</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="F10" s="22"/>
+        <v>137</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>16</v>
+      </c>
       <c r="G10" s="24"/>
       <c r="H10" s="13"/>
     </row>
@@ -2020,15 +4933,15 @@
         <v>4</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>86</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="D11" s="22"/>
       <c r="E11" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="F11" s="22"/>
+        <v>90</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>16</v>
+      </c>
       <c r="G11" s="24"/>
       <c r="H11" s="13"/>
     </row>
@@ -2036,16 +4949,15 @@
       <c r="B12" s="23">
         <v>5</v>
       </c>
-      <c r="C12" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>89</v>
+      <c r="C12" s="32" t="s">
+        <v>136</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="F12" s="22"/>
+        <v>137</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>16</v>
+      </c>
       <c r="G12" s="24"/>
       <c r="H12" s="13"/>
     </row>
@@ -2054,15 +4966,15 @@
         <v>6</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>92</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="D13" s="22"/>
       <c r="E13" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="F13" s="22"/>
+        <v>90</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>16</v>
+      </c>
       <c r="G13" s="24"/>
       <c r="H13" s="13"/>
     </row>
@@ -2071,15 +4983,15 @@
         <v>7</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>97</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="D14" s="28"/>
       <c r="E14" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="F14" s="22"/>
+        <v>173</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>16</v>
+      </c>
       <c r="G14" s="24"/>
       <c r="H14" s="13"/>
     </row>
@@ -2087,15 +4999,9 @@
       <c r="B15" s="23">
         <v>8</v>
       </c>
-      <c r="C15" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>99</v>
-      </c>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
       <c r="F15" s="22"/>
       <c r="G15" s="24"/>
       <c r="H15" s="13"/>
@@ -2104,15 +5010,9 @@
       <c r="B16" s="23">
         <v>9</v>
       </c>
-      <c r="C16" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D16" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>106</v>
-      </c>
+      <c r="C16" s="22"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="22"/>
       <c r="F16" s="22"/>
       <c r="G16" s="24"/>
       <c r="H16" s="13"/>
@@ -2121,22 +5021,18 @@
       <c r="B17" s="23">
         <v>10</v>
       </c>
-      <c r="C17" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22" t="s">
-        <v>80</v>
-      </c>
+      <c r="C17" s="32"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="22"/>
       <c r="F17" s="22"/>
       <c r="G17" s="24"/>
       <c r="H17" s="13"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="11"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="13"/>
@@ -2166,11 +5062,15 @@
       <c r="B21" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
+      <c r="C21" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>141</v>
+      </c>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
       <c r="H21" s="13"/>
@@ -2212,8 +5112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2246,18 +5146,18 @@
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>68</v>
+        <v>131</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>70</v>
+        <v>175</v>
       </c>
       <c r="D3" s="20"/>
       <c r="E3" s="20"/>
       <c r="F3" s="20" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>64</v>
+        <v>126</v>
       </c>
       <c r="H3" s="21"/>
     </row>
@@ -2266,7 +5166,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -2308,11 +5208,11 @@
         <v>1</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>71</v>
+        <v>128</v>
       </c>
       <c r="D8" s="25"/>
       <c r="E8" s="22" t="s">
-        <v>72</v>
+        <v>172</v>
       </c>
       <c r="F8" s="22" t="s">
         <v>16</v>
@@ -2325,11 +5225,11 @@
         <v>2</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" s="25"/>
+        <v>132</v>
+      </c>
+      <c r="D9" s="22"/>
       <c r="E9" s="22" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="F9" s="22" t="s">
         <v>16</v>
@@ -2342,11 +5242,11 @@
         <v>3</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="D10" s="28"/>
       <c r="E10" s="22" t="s">
-        <v>75</v>
+        <v>173</v>
       </c>
       <c r="F10" s="22" t="s">
         <v>16</v>
@@ -2358,18 +5258,10 @@
       <c r="B11" s="23">
         <v>4</v>
       </c>
-      <c r="C11" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>16</v>
-      </c>
+      <c r="C11" s="32"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
       <c r="G11" s="24"/>
       <c r="H11" s="13"/>
     </row>
@@ -2377,16 +5269,10 @@
       <c r="B12" s="23">
         <v>5</v>
       </c>
-      <c r="C12" s="22" t="s">
-        <v>79</v>
-      </c>
+      <c r="C12" s="22"/>
       <c r="D12" s="22"/>
-      <c r="E12" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>16</v>
-      </c>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
       <c r="G12" s="24"/>
       <c r="H12" s="13"/>
     </row>
@@ -2394,13 +5280,9 @@
       <c r="B13" s="23">
         <v>6</v>
       </c>
-      <c r="C13" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="22" t="s">
-        <v>72</v>
-      </c>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
       <c r="F13" s="22"/>
       <c r="G13" s="24"/>
       <c r="H13" s="13"/>
@@ -2409,13 +5291,9 @@
       <c r="B14" s="23">
         <v>7</v>
       </c>
-      <c r="C14" s="22" t="s">
-        <v>73</v>
-      </c>
+      <c r="C14" s="22"/>
       <c r="D14" s="25"/>
-      <c r="E14" s="22" t="s">
-        <v>72</v>
-      </c>
+      <c r="E14" s="22"/>
       <c r="F14" s="22"/>
       <c r="G14" s="24"/>
       <c r="H14" s="13"/>
@@ -2424,13 +5302,9 @@
       <c r="B15" s="23">
         <v>8</v>
       </c>
-      <c r="C15" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="22" t="s">
-        <v>75</v>
-      </c>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
       <c r="F15" s="22"/>
       <c r="G15" s="24"/>
       <c r="H15" s="13"/>
@@ -2439,15 +5313,9 @@
       <c r="B16" s="23">
         <v>9</v>
       </c>
-      <c r="C16" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>78</v>
-      </c>
+      <c r="C16" s="22"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="22"/>
       <c r="F16" s="22"/>
       <c r="G16" s="24"/>
       <c r="H16" s="13"/>
@@ -2456,22 +5324,18 @@
       <c r="B17" s="23">
         <v>10</v>
       </c>
-      <c r="C17" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22" t="s">
-        <v>80</v>
-      </c>
+      <c r="C17" s="32"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="22"/>
       <c r="F17" s="22"/>
       <c r="G17" s="24"/>
       <c r="H17" s="13"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="11"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="13"/>
@@ -2502,10 +5366,10 @@
         <v>29</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
+        <v>133</v>
+      </c>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
       <c r="H21" s="13"/>
@@ -2531,7 +5395,7 @@
       <c r="H23" s="5"/>
     </row>
   </sheetData>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
       <formula1>"TEST CASE,BUG REPORT"</formula1>
     </dataValidation>
@@ -2548,14 +5412,14 @@
   <dimension ref="B2:H23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F8" sqref="F8:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.7109375" customWidth="1"/>
+    <col min="3" max="3" width="37.7109375" customWidth="1"/>
     <col min="4" max="4" width="30.7109375" customWidth="1"/>
     <col min="5" max="5" width="35.7109375" customWidth="1"/>
     <col min="6" max="6" width="8.7109375" customWidth="1"/>
@@ -2581,27 +5445,27 @@
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>7</v>
+        <v>125</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>67</v>
+        <v>171</v>
       </c>
       <c r="D3" s="20"/>
       <c r="E3" s="20"/>
       <c r="F3" s="20" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="H3" s="21"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -2643,13 +5507,11 @@
         <v>1</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>30</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="D8" s="25"/>
       <c r="E8" s="22" t="s">
-        <v>36</v>
+        <v>172</v>
       </c>
       <c r="F8" s="22" t="s">
         <v>16</v>
@@ -2662,11 +5524,11 @@
         <v>2</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="25"/>
+        <v>129</v>
+      </c>
+      <c r="D9" s="22"/>
       <c r="E9" s="22" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="F9" s="22" t="s">
         <v>16</v>
@@ -2679,13 +5541,11 @@
         <v>3</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>56</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="D10" s="28"/>
       <c r="E10" s="22" t="s">
-        <v>38</v>
+        <v>173</v>
       </c>
       <c r="F10" s="22" t="s">
         <v>16</v>
@@ -2697,18 +5557,10 @@
       <c r="B11" s="23">
         <v>4</v>
       </c>
-      <c r="C11" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>16</v>
-      </c>
+      <c r="C11" s="32"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
       <c r="G11" s="24"/>
       <c r="H11" s="13"/>
     </row>
@@ -2716,16 +5568,10 @@
       <c r="B12" s="23">
         <v>5</v>
       </c>
-      <c r="C12" s="22" t="s">
-        <v>35</v>
-      </c>
+      <c r="C12" s="22"/>
       <c r="D12" s="22"/>
-      <c r="E12" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>16</v>
-      </c>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
       <c r="G12" s="24"/>
       <c r="H12" s="13"/>
     </row>
@@ -2733,16 +5579,10 @@
       <c r="B13" s="23">
         <v>6</v>
       </c>
-      <c r="C13" s="22" t="s">
-        <v>53</v>
-      </c>
+      <c r="C13" s="22"/>
       <c r="D13" s="22"/>
-      <c r="E13" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>16</v>
-      </c>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
       <c r="G13" s="24"/>
       <c r="H13" s="13"/>
     </row>
@@ -2751,7 +5591,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
+      <c r="D14" s="25"/>
       <c r="E14" s="22"/>
       <c r="F14" s="22"/>
       <c r="G14" s="24"/>
@@ -2773,7 +5613,7 @@
         <v>9</v>
       </c>
       <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
+      <c r="D16" s="28"/>
       <c r="E16" s="22"/>
       <c r="F16" s="22"/>
       <c r="G16" s="24"/>
@@ -2783,18 +5623,18 @@
       <c r="B17" s="23">
         <v>10</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="33"/>
       <c r="E17" s="22"/>
       <c r="F17" s="22"/>
       <c r="G17" s="24"/>
       <c r="H17" s="13"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="11"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="13"/>
@@ -2824,11 +5664,11 @@
       <c r="B21" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
+      <c r="C21" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
       <c r="H21" s="13"/>
@@ -2862,9 +5702,6 @@
       <formula1>"TEST CASE,BUG REPORT"</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="D8" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2881,7 +5718,7 @@
   <cols>
     <col min="1" max="1" width="2.7109375" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.7109375" customWidth="1"/>
     <col min="4" max="4" width="30.7109375" customWidth="1"/>
     <col min="5" max="5" width="35.7109375" customWidth="1"/>
     <col min="6" max="6" width="8.7109375" customWidth="1"/>
@@ -2907,27 +5744,27 @@
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>6</v>
+        <v>111</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>51</v>
+        <v>169</v>
       </c>
       <c r="D3" s="20"/>
       <c r="E3" s="20"/>
       <c r="F3" s="20" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="H3" s="21"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -2969,13 +5806,11 @@
         <v>1</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>30</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="D8" s="25"/>
       <c r="E8" s="22" t="s">
-        <v>36</v>
+        <v>168</v>
       </c>
       <c r="F8" s="22" t="s">
         <v>16</v>
@@ -2988,11 +5823,11 @@
         <v>2</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="25"/>
+        <v>114</v>
+      </c>
+      <c r="D9" s="22"/>
       <c r="E9" s="22" t="s">
-        <v>37</v>
+        <v>115</v>
       </c>
       <c r="F9" s="22" t="s">
         <v>16</v>
@@ -3005,11 +5840,13 @@
         <v>3</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="25"/>
+        <v>116</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>122</v>
+      </c>
       <c r="E10" s="22" t="s">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="F10" s="22" t="s">
         <v>16</v>
@@ -3021,12 +5858,14 @@
       <c r="B11" s="23">
         <v>4</v>
       </c>
-      <c r="C11" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="22"/>
+      <c r="C11" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>47</v>
+      </c>
       <c r="E11" s="22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F11" s="22" t="s">
         <v>16</v>
@@ -3039,11 +5878,11 @@
         <v>5</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="22" t="s">
-        <v>44</v>
+        <v>121</v>
       </c>
       <c r="F12" s="22" t="s">
         <v>16</v>
@@ -3055,9 +5894,13 @@
       <c r="B13" s="23">
         <v>6</v>
       </c>
-      <c r="C13" s="22"/>
+      <c r="C13" s="22" t="s">
+        <v>120</v>
+      </c>
       <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
+      <c r="E13" s="22" t="s">
+        <v>170</v>
+      </c>
       <c r="F13" s="22"/>
       <c r="G13" s="24"/>
       <c r="H13" s="13"/>
@@ -3066,9 +5909,13 @@
       <c r="B14" s="23">
         <v>7</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
+      <c r="C14" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" s="25"/>
+      <c r="E14" s="22" t="s">
+        <v>168</v>
+      </c>
       <c r="F14" s="22"/>
       <c r="G14" s="24"/>
       <c r="H14" s="13"/>
@@ -3077,9 +5924,13 @@
       <c r="B15" s="23">
         <v>8</v>
       </c>
-      <c r="C15" s="22"/>
+      <c r="C15" s="22" t="s">
+        <v>114</v>
+      </c>
       <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
+      <c r="E15" s="22" t="s">
+        <v>115</v>
+      </c>
       <c r="F15" s="22"/>
       <c r="G15" s="24"/>
       <c r="H15" s="13"/>
@@ -3088,9 +5939,15 @@
       <c r="B16" s="23">
         <v>9</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
+      <c r="C16" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>117</v>
+      </c>
       <c r="F16" s="22"/>
       <c r="G16" s="24"/>
       <c r="H16" s="13"/>
@@ -3099,18 +5956,30 @@
       <c r="B17" s="23">
         <v>10</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
+      <c r="C17" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>37</v>
+      </c>
       <c r="F17" s="22"/>
       <c r="G17" s="24"/>
       <c r="H17" s="13"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="11"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
+    <row r="18" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B18" s="23">
+        <v>11</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22" t="s">
+        <v>121</v>
+      </c>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="13"/>
@@ -3140,11 +6009,11 @@
       <c r="B21" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
+      <c r="C21" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
       <c r="H21" s="13"/>
@@ -3178,9 +6047,6 @@
       <formula1>"Not Run ,Pass,Fail,Block"</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="D8" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3190,15 +6056,16 @@
   <dimension ref="B2:H23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.7109375" customWidth="1"/>
-    <col min="4" max="5" width="30.7109375" customWidth="1"/>
+    <col min="3" max="3" width="37.7109375" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" customWidth="1"/>
+    <col min="5" max="5" width="35.7109375" customWidth="1"/>
     <col min="6" max="6" width="8.7109375" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" customWidth="1"/>
     <col min="8" max="9" width="2.7109375" customWidth="1"/>
@@ -3222,27 +6089,27 @@
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>45</v>
+        <v>167</v>
       </c>
       <c r="D3" s="20"/>
       <c r="E3" s="20"/>
       <c r="F3" s="20" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="H3" s="21"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -3284,13 +6151,11 @@
         <v>1</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>30</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="D8" s="25"/>
       <c r="E8" s="22" t="s">
-        <v>36</v>
+        <v>161</v>
       </c>
       <c r="F8" s="22" t="s">
         <v>16</v>
@@ -3303,11 +6168,13 @@
         <v>2</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="25"/>
+        <v>98</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>107</v>
+      </c>
       <c r="E9" s="22" t="s">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="F9" s="22" t="s">
         <v>16</v>
@@ -3320,13 +6187,11 @@
         <v>3</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>56</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="D10" s="28"/>
       <c r="E10" s="22" t="s">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="F10" s="22" t="s">
         <v>16</v>
@@ -3339,13 +6204,13 @@
         <v>4</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="F11" s="22" t="s">
         <v>16</v>
@@ -3358,11 +6223,11 @@
         <v>5</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="22"/>
+        <v>100</v>
+      </c>
+      <c r="D12" s="28"/>
       <c r="E12" s="22" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="F12" s="22" t="s">
         <v>16</v>
@@ -3374,10 +6239,18 @@
       <c r="B13" s="23">
         <v>6</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
+      <c r="C13" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>16</v>
+      </c>
       <c r="G13" s="24"/>
       <c r="H13" s="13"/>
     </row>
@@ -3385,10 +6258,16 @@
       <c r="B14" s="23">
         <v>7</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
+      <c r="C14" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="28"/>
+      <c r="E14" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>16</v>
+      </c>
       <c r="G14" s="24"/>
       <c r="H14" s="13"/>
     </row>
@@ -3455,15 +6334,19 @@
       <c r="G20" s="12"/>
       <c r="H20" s="13"/>
     </row>
-    <row r="21" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
+      <c r="C21" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>109</v>
+      </c>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
       <c r="H21" s="13"/>
@@ -3497,9 +6380,6 @@
       <formula1>"TEST CASE,BUG REPORT"</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="D8" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3509,15 +6389,16 @@
   <dimension ref="B2:H23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.7109375" customWidth="1"/>
-    <col min="4" max="5" width="30.7109375" customWidth="1"/>
+    <col min="3" max="3" width="37.7109375" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" customWidth="1"/>
+    <col min="5" max="5" width="35.7109375" customWidth="1"/>
     <col min="6" max="6" width="8.7109375" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" customWidth="1"/>
     <col min="8" max="9" width="2.7109375" customWidth="1"/>
@@ -3541,27 +6422,27 @@
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>41</v>
+        <v>165</v>
       </c>
       <c r="D3" s="20"/>
       <c r="E3" s="20"/>
       <c r="F3" s="20" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="H3" s="21"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -3603,13 +6484,11 @@
         <v>1</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>30</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="D8" s="25"/>
       <c r="E8" s="22" t="s">
-        <v>36</v>
+        <v>161</v>
       </c>
       <c r="F8" s="22" t="s">
         <v>16</v>
@@ -3622,11 +6501,11 @@
         <v>2</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="25"/>
+        <v>105</v>
+      </c>
+      <c r="D9" s="22"/>
       <c r="E9" s="22" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="F9" s="22" t="s">
         <v>16</v>
@@ -3639,13 +6518,11 @@
         <v>3</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>57</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="D10" s="28"/>
       <c r="E10" s="22" t="s">
-        <v>38</v>
+        <v>166</v>
       </c>
       <c r="F10" s="22" t="s">
         <v>16</v>
@@ -3657,18 +6534,10 @@
       <c r="B11" s="23">
         <v>4</v>
       </c>
-      <c r="C11" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>16</v>
-      </c>
+      <c r="C11" s="22"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
       <c r="G11" s="24"/>
       <c r="H11" s="13"/>
     </row>
@@ -3676,16 +6545,10 @@
       <c r="B12" s="23">
         <v>5</v>
       </c>
-      <c r="C12" s="22" t="s">
-        <v>35</v>
-      </c>
+      <c r="C12" s="22"/>
       <c r="D12" s="22"/>
-      <c r="E12" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>16</v>
-      </c>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
       <c r="G12" s="24"/>
       <c r="H12" s="13"/>
     </row>
@@ -3774,12 +6637,12 @@
       <c r="G20" s="12"/>
       <c r="H20" s="13"/>
     </row>
-    <row r="21" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="29" t="s">
-        <v>58</v>
+      <c r="C21" s="22" t="s">
+        <v>102</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
@@ -3809,16 +6672,13 @@
     </row>
   </sheetData>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:F17">
+      <formula1>"Not Run ,Pass,Fail,Block"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
       <formula1>"TEST CASE,BUG REPORT"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:F17">
-      <formula1>"Not Run ,Pass,Fail,Block"</formula1>
-    </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="D8" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>